--- a/Control.xlsx
+++ b/Control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptphong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin công việc" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Tiểu sử cá nhân" sheetId="3" r:id="rId3"/>
     <sheet name="Nhóm tính lương" sheetId="4" r:id="rId4"/>
     <sheet name="Thông tin thôi việc" sheetId="5" r:id="rId5"/>
+    <sheet name="Tab" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20663" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20974" uniqueCount="1256">
   <si>
     <t>grvEmpInfoCVJobInfo</t>
   </si>
@@ -3091,6 +3092,711 @@
   </si>
   <si>
     <t>HR129</t>
+  </si>
+  <si>
+    <t>FunctionID</t>
+  </si>
+  <si>
+    <t>DefaultName</t>
+  </si>
+  <si>
+    <t>TreeLevel</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>LargeIcon</t>
+  </si>
+  <si>
+    <t>HREM10101</t>
+  </si>
+  <si>
+    <t>Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>HREM101</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10101</t>
+  </si>
+  <si>
+    <t>icon-person</t>
+  </si>
+  <si>
+    <t>HREM1010101</t>
+  </si>
+  <si>
+    <t>Lý lịch cá nhân</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM1010101</t>
+  </si>
+  <si>
+    <t>HREM1010102</t>
+  </si>
+  <si>
+    <t>Thông tin liên hệ</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM1010102</t>
+  </si>
+  <si>
+    <t>HREM10102</t>
+  </si>
+  <si>
+    <t>Thông tin công việc</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10102</t>
+  </si>
+  <si>
+    <t>icon-i-calendar2-check</t>
+  </si>
+  <si>
+    <t>HREM10103</t>
+  </si>
+  <si>
+    <t>Thông tin tuyển dụng</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10103</t>
+  </si>
+  <si>
+    <t>icon-assignment_ind</t>
+  </si>
+  <si>
+    <t>HREM10104</t>
+  </si>
+  <si>
+    <t>Thân nhân</t>
+  </si>
+  <si>
+    <t>hr/empfamily/HREM10104</t>
+  </si>
+  <si>
+    <t>icon-family</t>
+  </si>
+  <si>
+    <t>HREM10105</t>
+  </si>
+  <si>
+    <t>Thông tin Đảng-Đoàn</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10105</t>
+  </si>
+  <si>
+    <t>icon-account_box</t>
+  </si>
+  <si>
+    <t>HREM10106</t>
+  </si>
+  <si>
+    <t>Tiểu sử cá nhân</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10106</t>
+  </si>
+  <si>
+    <t>HREM10107</t>
+  </si>
+  <si>
+    <t>Lao động nước ngoài</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10107</t>
+  </si>
+  <si>
+    <t>icon-folder_special</t>
+  </si>
+  <si>
+    <t>HREM10108</t>
+  </si>
+  <si>
+    <t>Hồ sơ cần nộp</t>
+  </si>
+  <si>
+    <t>hr/empdocument/HREM10108</t>
+  </si>
+  <si>
+    <t>icon-book_check</t>
+  </si>
+  <si>
+    <t>HREM10201</t>
+  </si>
+  <si>
+    <t>Sổ bảo hiểm - Sổ lao động</t>
+  </si>
+  <si>
+    <t>HREM102</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10201</t>
+  </si>
+  <si>
+    <t>HREM10202</t>
+  </si>
+  <si>
+    <t>Tài khoản cá nhân</t>
+  </si>
+  <si>
+    <t>hr/empbank/HREM10202</t>
+  </si>
+  <si>
+    <t>icon-money</t>
+  </si>
+  <si>
+    <t>HREM10203</t>
+  </si>
+  <si>
+    <t>Hợp đồng lao động</t>
+  </si>
+  <si>
+    <t>hr/empcontract/HREM10203</t>
+  </si>
+  <si>
+    <t>icon-description</t>
+  </si>
+  <si>
+    <t>HREM10204</t>
+  </si>
+  <si>
+    <t>Hộ chiếu</t>
+  </si>
+  <si>
+    <t>hr/emppassport/HREM10204</t>
+  </si>
+  <si>
+    <t>icon-folder_shared</t>
+  </si>
+  <si>
+    <t>HREM10205</t>
+  </si>
+  <si>
+    <t>Thị thực</t>
+  </si>
+  <si>
+    <t>hr/empvisa/HREM10205</t>
+  </si>
+  <si>
+    <t>icon-card_membership</t>
+  </si>
+  <si>
+    <t>HREM10206</t>
+  </si>
+  <si>
+    <t>hr/empworkpermit/HREM10206</t>
+  </si>
+  <si>
+    <t>HREM10207</t>
+  </si>
+  <si>
+    <t>Miễn giấy phép lao động</t>
+  </si>
+  <si>
+    <t>hr/empworkpermitexempt/HREM10207</t>
+  </si>
+  <si>
+    <t>HREM10208</t>
+  </si>
+  <si>
+    <t>Thẻ tạm trú</t>
+  </si>
+  <si>
+    <t>hr/emptempresidencecard/HREM10208</t>
+  </si>
+  <si>
+    <t>HREM10209</t>
+  </si>
+  <si>
+    <t>Đăng ký tạm trú</t>
+  </si>
+  <si>
+    <t>hr/emptempresidence/HREM10209</t>
+  </si>
+  <si>
+    <t>icon-snippet_folder</t>
+  </si>
+  <si>
+    <t>HREM10210</t>
+  </si>
+  <si>
+    <t>Giấy phép lái xe</t>
+  </si>
+  <si>
+    <t>hr/empdriverlicence/HREM10210</t>
+  </si>
+  <si>
+    <t>HREM10211</t>
+  </si>
+  <si>
+    <t>Thông tin ủy quyền</t>
+  </si>
+  <si>
+    <t>hr//HREM10211</t>
+  </si>
+  <si>
+    <t>icon-i-folder-symlink</t>
+  </si>
+  <si>
+    <t>HREM10301</t>
+  </si>
+  <si>
+    <t>HREM103</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10301</t>
+  </si>
+  <si>
+    <t>icon-attach_money</t>
+  </si>
+  <si>
+    <t>HREM10302</t>
+  </si>
+  <si>
+    <t>Lương cơ bản</t>
+  </si>
+  <si>
+    <t>hr/empbasicsalary/HREM10302</t>
+  </si>
+  <si>
+    <t>HREM10303</t>
+  </si>
+  <si>
+    <t>Lương theo vị trí công việc</t>
+  </si>
+  <si>
+    <t>hr/empjwsalary/HREM10303</t>
+  </si>
+  <si>
+    <t>HREM10304</t>
+  </si>
+  <si>
+    <t>Phụ cấp</t>
+  </si>
+  <si>
+    <t>hr/empallowance/HREM10304</t>
+  </si>
+  <si>
+    <t>icon-redeem</t>
+  </si>
+  <si>
+    <t>HREM10305</t>
+  </si>
+  <si>
+    <t>Thu nhập khác</t>
+  </si>
+  <si>
+    <t>hr/paytexcept/HREM10305</t>
+  </si>
+  <si>
+    <t>HREM10306</t>
+  </si>
+  <si>
+    <t>Bảo hiểm bắt buộc</t>
+  </si>
+  <si>
+    <t>hr/empinsurance/HREM10306</t>
+  </si>
+  <si>
+    <t>icon-monetization_on</t>
+  </si>
+  <si>
+    <t>HREM10307</t>
+  </si>
+  <si>
+    <t>Khấu trừ khác</t>
+  </si>
+  <si>
+    <t>hr/paytexcept/HREM10307</t>
+  </si>
+  <si>
+    <t>icon-money_off</t>
+  </si>
+  <si>
+    <t>HREM10308</t>
+  </si>
+  <si>
+    <t>Tài sản cấp phát</t>
+  </si>
+  <si>
+    <t>hr/empfortune/HREM10308</t>
+  </si>
+  <si>
+    <t>icon-rule_folder</t>
+  </si>
+  <si>
+    <t>HREM10309</t>
+  </si>
+  <si>
+    <t>Tiền vay</t>
+  </si>
+  <si>
+    <t>hr/emploan/HREM10309</t>
+  </si>
+  <si>
+    <t>HREM10310</t>
+  </si>
+  <si>
+    <t>Bảo hiểm khác</t>
+  </si>
+  <si>
+    <t>hr/empinsuranceother/HREM10310</t>
+  </si>
+  <si>
+    <t>HREM10311</t>
+  </si>
+  <si>
+    <t>hr/empcostcenter/HREM10311</t>
+  </si>
+  <si>
+    <t>HREM10312</t>
+  </si>
+  <si>
+    <t>Tài khoản tài xế</t>
+  </si>
+  <si>
+    <t>hr/empdriveraccount/HREM10312</t>
+  </si>
+  <si>
+    <t>icon-account_balance_wallet</t>
+  </si>
+  <si>
+    <t>HREM10313</t>
+  </si>
+  <si>
+    <t>Giấy ủy quyền</t>
+  </si>
+  <si>
+    <t>hr/empauthorizationletter/HREM10313</t>
+  </si>
+  <si>
+    <t>HREM10401</t>
+  </si>
+  <si>
+    <t>Nghỉ phép</t>
+  </si>
+  <si>
+    <t>HREM104</t>
+  </si>
+  <si>
+    <t>hr/empdayoff/HREM10401</t>
+  </si>
+  <si>
+    <t>icon-deck</t>
+  </si>
+  <si>
+    <t>HREM10402</t>
+  </si>
+  <si>
+    <t>Nghỉ bù</t>
+  </si>
+  <si>
+    <t>hr/empdayoff/HREM10402</t>
+  </si>
+  <si>
+    <t>HREM10403</t>
+  </si>
+  <si>
+    <t>Bổ nhiệm - Điều chuyển</t>
+  </si>
+  <si>
+    <t>hr/empworking/HREM10403</t>
+  </si>
+  <si>
+    <t>HREM10404</t>
+  </si>
+  <si>
+    <t>Nhật ký Công tác</t>
+  </si>
+  <si>
+    <t>hr/empbusinessdiary/HREM10404</t>
+  </si>
+  <si>
+    <t>icon-local_taxi</t>
+  </si>
+  <si>
+    <t>HREM10405</t>
+  </si>
+  <si>
+    <t>Dự án tham gia</t>
+  </si>
+  <si>
+    <t>hr/empproject/HREM10405</t>
+  </si>
+  <si>
+    <t>icon-speaker_notes</t>
+  </si>
+  <si>
+    <t>HREM10406</t>
+  </si>
+  <si>
+    <t>Công việc thực hiện</t>
+  </si>
+  <si>
+    <t>hr/emptask2/HREM10406</t>
+  </si>
+  <si>
+    <t>icon-fact_check</t>
+  </si>
+  <si>
+    <t>HREM10407</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm trước đây</t>
+  </si>
+  <si>
+    <t>hr/empexperience/HREM10407</t>
+  </si>
+  <si>
+    <t>icon-assignment_turned_in</t>
+  </si>
+  <si>
+    <t>HREM10501</t>
+  </si>
+  <si>
+    <t>Bằng cấp</t>
+  </si>
+  <si>
+    <t>HREM105</t>
+  </si>
+  <si>
+    <t>hr/emptrainbgrd/HREM10501</t>
+  </si>
+  <si>
+    <t>icon-school</t>
+  </si>
+  <si>
+    <t>HREM10502</t>
+  </si>
+  <si>
+    <t>Chứng chỉ</t>
+  </si>
+  <si>
+    <t>hr/empcertificate/HREM10502</t>
+  </si>
+  <si>
+    <t>icon-class</t>
+  </si>
+  <si>
+    <t>HREM10503</t>
+  </si>
+  <si>
+    <t>Kỹ năng</t>
+  </si>
+  <si>
+    <t>hr/empskill/HREM10503</t>
+  </si>
+  <si>
+    <t>icon-fitness_center</t>
+  </si>
+  <si>
+    <t>HREM10504</t>
+  </si>
+  <si>
+    <t>Đào tạo nội bộ</t>
+  </si>
+  <si>
+    <t>hr/emptraincourse/HREM10504</t>
+  </si>
+  <si>
+    <t>icon-local_library</t>
+  </si>
+  <si>
+    <t>HREM10505</t>
+  </si>
+  <si>
+    <t>Công trình nghiên cứu</t>
+  </si>
+  <si>
+    <t>hr/empresearch/HREM10505</t>
+  </si>
+  <si>
+    <t>icon-batch_prediction</t>
+  </si>
+  <si>
+    <t>HREM10601</t>
+  </si>
+  <si>
+    <t>HREM106</t>
+  </si>
+  <si>
+    <t>hr/aprperiodic/HREM10601</t>
+  </si>
+  <si>
+    <t>icon-sentiment_satisfied</t>
+  </si>
+  <si>
+    <t>HREM10602</t>
+  </si>
+  <si>
+    <t>Khen thưởng</t>
+  </si>
+  <si>
+    <t>hr/empaward/HREM10602</t>
+  </si>
+  <si>
+    <t>HREM10603</t>
+  </si>
+  <si>
+    <t>Kỷ luật</t>
+  </si>
+  <si>
+    <t>hr/empdiscipline/HREM10603</t>
+  </si>
+  <si>
+    <t>icon-sentiment_dissatisfied</t>
+  </si>
+  <si>
+    <t>HREM10701</t>
+  </si>
+  <si>
+    <t>Thẻ Bảo hiểm y tế</t>
+  </si>
+  <si>
+    <t>HREM107</t>
+  </si>
+  <si>
+    <t>hr/emphicard/HREM10701</t>
+  </si>
+  <si>
+    <t>icon-wheelchair_pickup</t>
+  </si>
+  <si>
+    <t>HREM10702</t>
+  </si>
+  <si>
+    <t>Tai nạn lao động</t>
+  </si>
+  <si>
+    <t>hr/empaccident/HREM10702</t>
+  </si>
+  <si>
+    <t>HREM10703</t>
+  </si>
+  <si>
+    <t>Khám sức khỏe</t>
+  </si>
+  <si>
+    <t>hr/emphealth/HREM10703</t>
+  </si>
+  <si>
+    <t>icon-accessibility</t>
+  </si>
+  <si>
+    <t>HREM10704</t>
+  </si>
+  <si>
+    <t>Bệnh nghề nghiệp</t>
+  </si>
+  <si>
+    <t>hr/empdisease/HREM10704</t>
+  </si>
+  <si>
+    <t>icon-sick</t>
+  </si>
+  <si>
+    <t>HREM10705</t>
+  </si>
+  <si>
+    <t>Tiêm vaccine</t>
+  </si>
+  <si>
+    <t>hr/empvaccine/HREM10705</t>
+  </si>
+  <si>
+    <t>icon-colorize</t>
+  </si>
+  <si>
+    <t>HREM10706</t>
+  </si>
+  <si>
+    <t>Hội viên</t>
+  </si>
+  <si>
+    <t>hr/empmember/HREM10706</t>
+  </si>
+  <si>
+    <t>HREM10707</t>
+  </si>
+  <si>
+    <t>Danh hiệu được phong</t>
+  </si>
+  <si>
+    <t>hr/empconfertitle/HREM10707</t>
+  </si>
+  <si>
+    <t>icon-i-award</t>
+  </si>
+  <si>
+    <t>HREM10708</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>hr/empevent/HREM10708</t>
+  </si>
+  <si>
+    <t>icon-i-calendar2-event-fill</t>
+  </si>
+  <si>
+    <t>HREM10801</t>
+  </si>
+  <si>
+    <t>Thông tin thôi việc</t>
+  </si>
+  <si>
+    <t>HREM108</t>
+  </si>
+  <si>
+    <t>hr/emplist/HREM10801</t>
+  </si>
+  <si>
+    <t>icon-person_remove</t>
+  </si>
+  <si>
+    <t>HREM10802</t>
+  </si>
+  <si>
+    <t>Chi tiết bàn giao</t>
+  </si>
+  <si>
+    <t>hr/emptaskoff/HREM10802</t>
+  </si>
+  <si>
+    <t>icon-compare_arrows</t>
+  </si>
+  <si>
+    <t>HREM10803</t>
+  </si>
+  <si>
+    <t>Quá trình duyệt đơn</t>
+  </si>
+  <si>
+    <t>hr//HREM10803</t>
+  </si>
+  <si>
+    <t>icon-i-check2-square</t>
+  </si>
+  <si>
+    <t>HREM10901</t>
+  </si>
+  <si>
+    <t>Theo dõi thay đổi</t>
+  </si>
+  <si>
+    <t>HREM109</t>
+  </si>
+  <si>
+    <t>hr/emptracking/HREM10901</t>
+  </si>
+  <si>
+    <t>icon-published_with_changes</t>
   </si>
 </sst>
 </file>
@@ -56731,8 +57437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70087,4 +70793,1265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>